--- a/hardware/HittStress-21_20210112_BOMPlanning.xlsx
+++ b/hardware/HittStress-21_20210112_BOMPlanning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drasv\GitHub\Aid-Hittestress-2021\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180F31E-C8B5-4D45-8471-3BD2150A1FC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1729B0C-C57C-4948-B2E7-488867725566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{2A3D9521-BBF8-47AD-AA90-255C969604E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3D9521-BBF8-47AD-AA90-255C969604E3}"/>
   </bookViews>
   <sheets>
     <sheet name="RS (16+4)" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
   <si>
     <t>Ref</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Helltec</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik, 2109 2.54mm Pitch, 3 Way PCB Terminal Block</t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/pcb-terminal-blocks/1919097/</t>
   </si>
 </sst>
 </file>
@@ -924,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC90A40-99C1-4689-B387-BAF879F6B4CE}">
   <dimension ref="B2:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,19 +1765,19 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H33" si="7">C25*$G$4</f>
+        <f t="shared" ref="H25:H34" si="7">C25*$G$4</f>
         <v>22</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" ref="I25:I33" si="8">ROUNDUP(H25/G25,0)*G25*F25</f>
+        <f t="shared" ref="I25:I34" si="8">ROUNDUP(H25/G25,0)*G25*F25</f>
         <v>50.749999999999993</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25:J33" si="9">I25*1.21</f>
+        <f t="shared" ref="J25:J34" si="9">I25*1.21</f>
         <v>61.407499999999992</v>
       </c>
       <c r="K25" s="31">
-        <f t="shared" ref="K25:K33" si="10">ROUNDUP(H25/G25,0)*G25</f>
+        <f t="shared" ref="K25:K34" si="10">ROUNDUP(H25/G25,0)*G25</f>
         <v>25</v>
       </c>
       <c r="L25" s="3"/>
@@ -2105,20 +2111,41 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+    <row r="34" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1.198</v>
+      </c>
+      <c r="G34" s="26">
+        <v>5</v>
+      </c>
+      <c r="H34" s="26">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="I34" s="29">
+        <f t="shared" si="8"/>
+        <v>29.95</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="9"/>
+        <v>36.2395</v>
+      </c>
+      <c r="K34" s="31">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
@@ -2249,11 +2276,11 @@
       </c>
       <c r="I43" s="4">
         <f>SUM(I7:I42)</f>
-        <v>3931.7554545454545</v>
+        <v>3961.7054545454544</v>
       </c>
       <c r="J43" s="4">
         <f>SUM(J7:J42)</f>
-        <v>4757.4241000000002</v>
+        <v>4793.6635999999999</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2272,7 +2299,7 @@
       </c>
       <c r="I46" s="4">
         <f>I43*F46</f>
-        <v>393.1755454545455</v>
+        <v>396.17054545454545</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2296,17 +2323,17 @@
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I48" s="18">
         <f>I46+I43</f>
-        <v>4324.9310000000005</v>
+        <v>4357.8760000000002</v>
       </c>
       <c r="J48" s="4">
         <f>I48*1.21</f>
-        <v>5233.16651</v>
+        <v>5273.0299599999998</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4">
         <f>J48-M43</f>
-        <v>5233.16651</v>
+        <v>5273.0299599999998</v>
       </c>
       <c r="P48" t="str">
         <f>CONCATENATE("Project price excl.VAT for ",G3," devices")</f>
@@ -2316,11 +2343,11 @@
     <row r="49" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I49" s="17">
         <f>J49/121*100</f>
-        <v>216.24654999999996</v>
+        <v>217.8938</v>
       </c>
       <c r="J49" s="19">
         <f>J48/(G4-G2)</f>
-        <v>261.65832549999999</v>
+        <v>263.651498</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
@@ -2332,7 +2359,7 @@
     <row r="50" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J50" s="20">
         <f>J48/G4</f>
-        <v>237.871205</v>
+        <v>239.68317999999999</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
@@ -2710,18 +2737,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2948,6 +2975,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4927D650-A710-4311-9DB0-03A2CF410FAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536F24D6-E629-4203-8158-268EF3CA93F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2960,14 +2995,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4927D650-A710-4311-9DB0-03A2CF410FAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/hardware/HittStress-21_20210112_BOMPlanning.xlsx
+++ b/hardware/HittStress-21_20210112_BOMPlanning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drasv\GitHub\Aid-Hittestress-2021\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drasv\github\Aid-Hittestress-2021\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1729B0C-C57C-4948-B2E7-488867725566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3557F-3D74-4550-8705-44197E499A61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3D9521-BBF8-47AD-AA90-255C969604E3}"/>
+    <workbookView xWindow="30120" yWindow="3120" windowWidth="18765" windowHeight="12225" xr2:uid="{2A3D9521-BBF8-47AD-AA90-255C969604E3}"/>
   </bookViews>
   <sheets>
     <sheet name="RS (16+4)" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="123">
   <si>
     <t>Ref</t>
   </si>
@@ -283,12 +283,6 @@
     <t>Voeding</t>
   </si>
   <si>
-    <t>Temp/Humidity sensoren</t>
-  </si>
-  <si>
-    <t>Enkelzijdige PCB 3x</t>
-  </si>
-  <si>
     <t>SDS011 behuizingen</t>
   </si>
   <si>
@@ -298,45 +292,9 @@
     <t>LittleIfuse 0,05A</t>
   </si>
   <si>
-    <t>100 nF</t>
-  </si>
-  <si>
-    <t>Pin hearders</t>
-  </si>
-  <si>
-    <t>Pin header female 2x</t>
-  </si>
-  <si>
-    <t>Pin header female 4x</t>
-  </si>
-  <si>
-    <t>Pin header female 6x</t>
-  </si>
-  <si>
-    <t>Pin header female 12x</t>
-  </si>
-  <si>
     <t>SDS connector PCB</t>
   </si>
   <si>
-    <t>330K</t>
-  </si>
-  <si>
-    <t>120K</t>
-  </si>
-  <si>
-    <t>Nylon standoff</t>
-  </si>
-  <si>
-    <t>Nylon moer</t>
-  </si>
-  <si>
-    <t>Nylon schroef</t>
-  </si>
-  <si>
-    <t>Bindbandjes</t>
-  </si>
-  <si>
     <t>KW-2152</t>
   </si>
   <si>
@@ -352,45 +310,12 @@
     <t>https://nl.rs-online.com/web/p/products/7756034/</t>
   </si>
   <si>
-    <t>https://nl.rs-online.com/web/p/products/5381203/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/6742340/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/2518171/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/2518193/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/6737553/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/1217420/</t>
-  </si>
-  <si>
     <t>https://nl.rs-online.com/web/p/products/8201598/</t>
   </si>
   <si>
-    <t>https://nl.rs-online.com/web/p/products/6833547/</t>
-  </si>
-  <si>
     <t>https://nl.rs-online.com/web/p/products/7078221/</t>
   </si>
   <si>
-    <t>https://nl.rs-online.com/web/p/products/6832715/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/0325687/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/0525701/</t>
-  </si>
-  <si>
-    <t>https://nl.rs-online.com/web/p/products/0527971/</t>
-  </si>
-  <si>
     <t>HOZA</t>
   </si>
   <si>
@@ -440,6 +365,45 @@
   </si>
   <si>
     <t>https://nl.rs-online.com/web/p/pcb-terminal-blocks/1919097/</t>
+  </si>
+  <si>
+    <t>4R7</t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/through-hole-fixed-resistors/6833806/</t>
+  </si>
+  <si>
+    <t>5K1</t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/through-hole-fixed-resistors/0148253/</t>
+  </si>
+  <si>
+    <t>ATGM336H GPS</t>
+  </si>
+  <si>
+    <t>Dubbelzijdige PCB 3x</t>
+  </si>
+  <si>
+    <t>2.54mm Pitch 3 Way 1 Row Straight PCB Socket</t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/pcb-sockets/2518187/</t>
+  </si>
+  <si>
+    <t>2.54mm Pitch 5 Way 1 Row Straight PCB Socket</t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/pcb-sockets/2518200/</t>
+  </si>
+  <si>
+    <t>SSW 2.54mm Pitch 11 Way 1 Row Straight PCB Socket</t>
+  </si>
+  <si>
+    <t>https://nl.rs-online.com/web/p/pcb-sockets/1981643/</t>
+  </si>
+  <si>
+    <t>AM2305</t>
   </si>
 </sst>
 </file>
@@ -930,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC90A40-99C1-4689-B387-BAF879F6B4CE}">
   <dimension ref="B2:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +916,7 @@
     <col min="14" max="14" width="4.44140625" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="76" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56" customWidth="1"/>
     <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -997,7 +961,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1057,15 +1021,15 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H18" si="0">C8*$G$4</f>
+        <f t="shared" ref="H8:H19" si="0">C8*$G$4</f>
         <v>22</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" ref="I8:I18" si="1">ROUNDUP(H8/G8,0)*G8*F8</f>
+        <f t="shared" ref="I8:I19" si="1">ROUNDUP(H8/G8,0)*G8*F8</f>
         <v>210.76</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J18" si="2">I8*1.21</f>
+        <f t="shared" ref="J8:J19" si="2">I8*1.21</f>
         <v>255.01959999999997</v>
       </c>
       <c r="K8" s="31">
@@ -1077,10 +1041,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -1123,7 +1087,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -1166,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1177,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F11" s="28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11" s="26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="0"/>
@@ -1191,25 +1155,25 @@
       </c>
       <c r="I11" s="29">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="J11" s="28">
         <f t="shared" si="2"/>
-        <v>605</v>
+        <v>399.3</v>
       </c>
       <c r="K11" s="31">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -1220,10 +1184,11 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="F12" s="3">
-        <v>10</v>
+        <f>35.13/3</f>
+        <v>11.71</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1234,11 +1199,11 @@
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>257.62</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>266.2</v>
+        <v>311.72019999999998</v>
       </c>
       <c r="K12" s="31">
         <f t="shared" si="3"/>
@@ -1260,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F13" s="3">
         <v>20</v>
@@ -1289,10 +1254,10 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="Q13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1303,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="28">
         <v>2</v>
@@ -1332,10 +1297,10 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="26" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1346,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="28">
         <f>14.4/3</f>
@@ -1376,10 +1341,10 @@
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="P15" s="26" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -1390,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3">
         <v>3.68</v>
@@ -1422,7 +1387,7 @@
         <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
@@ -1433,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F17" s="5">
         <v>0.42399999999999999</v>
@@ -1465,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
@@ -1476,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F18" s="5">
         <v>0.24399999999999999</v>
@@ -1508,36 +1473,40 @@
         <v>30</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="F19" s="5">
-        <f>10*5*0.076</f>
-        <v>3.8</v>
+        <v>0.48</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="I19" s="4">
-        <f>J19/121*100</f>
-        <v>50.636363636363633</v>
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
       </c>
       <c r="J19" s="4">
-        <v>61.27</v>
+        <f t="shared" si="2"/>
+        <v>17.423999999999999</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="4"/>
@@ -1547,21 +1516,24 @@
         <v>30</v>
       </c>
       <c r="Q19" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F20" s="3">
-        <v>1.75</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <f>C20*$G$4</f>
@@ -1569,15 +1541,15 @@
       </c>
       <c r="I20" s="4">
         <f>ROUNDUP(H20/G20,0)*G20*F20</f>
-        <v>43.75</v>
+        <v>21.689999999999998</v>
       </c>
       <c r="J20" s="3">
         <f>I20*1.21</f>
-        <v>52.9375</v>
+        <v>26.244899999999998</v>
       </c>
       <c r="K20" s="31">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1586,38 +1558,41 @@
       <c r="P20" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" t="s">
-        <v>106</v>
+      <c r="Q20" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="F21" s="5">
-        <v>14.46</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
         <f>C21*$G$4</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I21" s="4">
         <f>J21/121*100</f>
-        <v>262.90909090909088</v>
+        <v>41.818181818181813</v>
       </c>
       <c r="J21" s="4">
         <f>ROUNDUP(H21/G21,0)*G21*F21</f>
-        <v>318.12</v>
+        <v>50.599999999999994</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="4"/>
@@ -1625,16 +1600,13 @@
       <c r="P21" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" t="s">
-        <v>107</v>
+      <c r="Q21" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
         <v>1.36</v>
@@ -1644,19 +1616,19 @@
       </c>
       <c r="H22">
         <f>C22*$G$4</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
         <f>ROUNDUP(H22/G22,0)*G22*F22</f>
-        <v>32.64</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4">
         <f>I22*1.21</f>
-        <v>39.494399999999999</v>
+        <v>0</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="4"/>
@@ -1664,16 +1636,10 @@
       <c r="P22" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>6.67</v>
@@ -1683,19 +1649,19 @@
       </c>
       <c r="H23">
         <f t="shared" ref="H23:H24" si="4">C23*$G$4</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ref="I23:I24" si="5">ROUNDUP(H23/G23,0)*G23*F23</f>
-        <v>146.74</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" ref="J23:J24" si="6">I23*1.21</f>
-        <v>177.55539999999999</v>
+        <v>0</v>
       </c>
       <c r="K23" s="31">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1704,16 +1670,10 @@
       <c r="P23" t="s">
         <v>30</v>
       </c>
-      <c r="Q23" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>2.0299999999999998</v>
@@ -1723,19 +1683,19 @@
       </c>
       <c r="H24">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="5"/>
-        <v>50.749999999999993</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="6"/>
-        <v>61.407499999999992</v>
+        <v>0</v>
       </c>
       <c r="K24" s="31">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1744,9 +1704,7 @@
       <c r="P24" t="s">
         <v>30</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="b">
@@ -1756,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F25" s="3">
         <v>2.0299999999999998</v>
@@ -1787,21 +1745,24 @@
         <v>30</v>
       </c>
       <c r="Q25" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F26" s="3">
-        <v>2.0299999999999998</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <f t="shared" si="7"/>
@@ -1809,53 +1770,52 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="8"/>
-        <v>50.749999999999993</v>
+        <v>110</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="9"/>
-        <v>61.407499999999992</v>
+        <v>133.1</v>
       </c>
       <c r="K26" s="31">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10">
-        <v>1</v>
+      <c r="B27" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="26">
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="3">
-        <v>2.0299999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="8"/>
-        <v>50.749999999999993</v>
+        <v>6</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="9"/>
-        <v>61.407499999999992</v>
+        <v>7.26</v>
       </c>
       <c r="K27" s="31">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -1864,7 +1824,7 @@
         <v>30</v>
       </c>
       <c r="Q27" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1875,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F28" s="28">
         <v>11.99</v>
@@ -1900,26 +1860,28 @@
         <v>22</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10">
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="26">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="3">
-        <v>2.0299999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <f t="shared" si="7"/>
@@ -1927,11 +1889,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="8"/>
-        <v>50.749999999999993</v>
+        <v>2.5</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="9"/>
-        <v>61.407499999999992</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="K29" s="31">
         <f t="shared" si="10"/>
@@ -1944,39 +1906,41 @@
         <v>30</v>
       </c>
       <c r="Q29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10">
-        <v>0</v>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="26">
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="3">
-        <v>2.0299999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="K30" s="31">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -1985,16 +1949,13 @@
         <v>30</v>
       </c>
       <c r="Q30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
+      <c r="C31" s="26">
+        <v>0</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="3">
@@ -2025,17 +1986,11 @@
       <c r="P31" t="s">
         <v>30</v>
       </c>
-      <c r="Q31" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
-      <c r="C32" s="10">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
+      <c r="C32" s="26">
+        <v>0</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="3">
@@ -2066,17 +2021,11 @@
       <c r="P32" t="s">
         <v>30</v>
       </c>
-      <c r="Q32" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
+      <c r="C33" s="26">
+        <v>0</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="3">
@@ -2108,15 +2057,18 @@
         <v>30</v>
       </c>
       <c r="Q33" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
       <c r="C34" s="10">
         <v>1</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F34" s="3">
         <v>1.198</v>
@@ -2144,7 +2096,7 @@
         <v>30</v>
       </c>
       <c r="Q34" s="26" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
@@ -2170,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F36" s="3">
         <v>1.65</v>
@@ -2198,7 +2150,7 @@
         <v>53</v>
       </c>
       <c r="Q36" s="26" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
@@ -2276,11 +2228,11 @@
       </c>
       <c r="I43" s="4">
         <f>SUM(I7:I42)</f>
-        <v>3961.7054545454544</v>
+        <v>3288.5581818181822</v>
       </c>
       <c r="J43" s="4">
         <f>SUM(J7:J42)</f>
-        <v>4793.6635999999999</v>
+        <v>3979.1553999999996</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2299,7 +2251,7 @@
       </c>
       <c r="I46" s="4">
         <f>I43*F46</f>
-        <v>396.17054545454545</v>
+        <v>328.85581818181822</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2323,17 +2275,17 @@
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I48" s="18">
         <f>I46+I43</f>
-        <v>4357.8760000000002</v>
+        <v>3617.4140000000007</v>
       </c>
       <c r="J48" s="4">
         <f>I48*1.21</f>
-        <v>5273.0299599999998</v>
+        <v>4377.0709400000005</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4">
         <f>J48-M43</f>
-        <v>5273.0299599999998</v>
+        <v>4377.0709400000005</v>
       </c>
       <c r="P48" t="str">
         <f>CONCATENATE("Project price excl.VAT for ",G3," devices")</f>
@@ -2343,11 +2295,11 @@
     <row r="49" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I49" s="17">
         <f>J49/121*100</f>
-        <v>217.8938</v>
+        <v>180.8707</v>
       </c>
       <c r="J49" s="19">
         <f>J48/(G4-G2)</f>
-        <v>263.651498</v>
+        <v>218.85354700000002</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
@@ -2359,7 +2311,7 @@
     <row r="50" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J50" s="20">
         <f>J48/G4</f>
-        <v>239.68317999999999</v>
+        <v>198.95777000000001</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
@@ -2372,11 +2324,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q24" r:id="rId1" xr:uid="{C2915AF6-3C7D-4095-954C-D2D1801A3F7F}"/>
-    <hyperlink ref="Q10" r:id="rId2" xr:uid="{9762C127-428C-4707-A546-F5D46CE3B2C6}"/>
+    <hyperlink ref="Q10" r:id="rId1" xr:uid="{9762C127-428C-4707-A546-F5D46CE3B2C6}"/>
+    <hyperlink ref="Q20" r:id="rId2" xr:uid="{169395BA-AE31-42AC-82EC-51390C5AA814}"/>
+    <hyperlink ref="Q21" r:id="rId3" xr:uid="{5B4A97B9-C5D4-43E1-BB62-859B4AA78A24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2699,7 +2652,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2708,7 +2661,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
